--- a/first.xlsx
+++ b/first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF5221-007A-4895-83F3-8D0AE160FED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1634BD-283C-4496-A34C-7EC6D390DB96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1368" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,15 +574,15 @@
       </c>
       <c r="I12">
         <f ca="1">J12+K12</f>
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J12">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K12" s="2">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -612,15 +612,15 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" ref="I13:I22" ca="1" si="0">J13+K13</f>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ref="J13:L22" ca="1" si="1">RANDBETWEEN(1, 100)</f>
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -650,15 +650,15 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -685,15 +685,15 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -717,15 +717,15 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -753,15 +753,15 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -788,15 +788,15 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -820,15 +820,15 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -852,15 +852,15 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -884,15 +884,15 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -916,15 +916,15 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/first.xlsx
+++ b/first.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1634BD-283C-4496-A34C-7EC6D390DB96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF164165-D005-4CAF-BF2A-5ABEE87DE135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7476" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -129,12 +131,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -157,6 +189,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,117 +478,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -572,20 +618,24 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <f ca="1">J12+K12</f>
-        <v>131</v>
+      <c r="I12" s="4">
+        <f ca="1">5+J12</f>
+        <v>92</v>
       </c>
       <c r="J12">
+        <f ca="1">SUM(K12:L12)</f>
+        <v>87</v>
+      </c>
+      <c r="K12">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>41</v>
-      </c>
-      <c r="K12" s="2">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -610,20 +660,24 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" ref="I13:I22" ca="1" si="0">J13+K13</f>
-        <v>68</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" ref="J13:L22" ca="1" si="1">RANDBETWEEN(1, 100)</f>
-        <v>64</v>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13:I22" ca="1" si="0">5+J13</f>
+        <v>160</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" ref="J13:J22" ca="1" si="1">SUM(K13:L13)</f>
+        <v>155</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K13:L22" ca="1" si="2">RANDBETWEEN(1, 100)</f>
+        <v>78</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -648,20 +702,24 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="J14" s="2">
+        <v>138</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -683,20 +741,24 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="J15" s="2">
+        <v>167</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -715,21 +777,25 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="J16" s="2">
+        <v>78</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -751,20 +817,24 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J17" s="2">
+        <v>124</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -786,20 +856,24 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J18" s="2">
+        <v>46</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -818,20 +892,24 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="J19" s="2">
+        <v>57</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -850,20 +928,24 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="J20" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -882,20 +964,24 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J21" s="2">
+        <v>118</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -914,23 +1000,27 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="J22" s="2">
+        <v>82</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="J5:L6"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
@@ -943,4 +1033,135 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFE1558-6EAD-40FB-93D6-9619E326BF93}">
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/first.xlsx
+++ b/first.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF164165-D005-4CAF-BF2A-5ABEE87DE135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF899CA5-A975-43EE-9E0F-F7613765AF9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7476" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,19 +620,19 @@
       </c>
       <c r="I12" s="4">
         <f ca="1">5+J12</f>
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="J12">
         <f ca="1">SUM(K12:L12)</f>
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="K12">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="L12" s="2">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -662,19 +662,19 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" ref="I13:I22" ca="1" si="0">5+J13</f>
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" ref="J13:J22" ca="1" si="1">SUM(K13:L13)</f>
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" ref="K13:L22" ca="1" si="2">RANDBETWEEN(1, 100)</f>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -704,19 +704,19 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -743,19 +743,19 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -779,19 +779,19 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M16" s="2"/>
     </row>
@@ -819,19 +819,19 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -858,19 +858,19 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -894,19 +894,19 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -930,19 +930,19 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -966,19 +966,19 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1002,19 +1002,19 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/first.xlsx
+++ b/first.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF899CA5-A975-43EE-9E0F-F7613765AF9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82D668-6280-42A1-A65B-1B24A2C7BC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7476" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -191,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,67 +500,67 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="3"/>
       <c r="J7" t="s">
         <v>26</v>
@@ -574,24 +573,24 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -620,19 +619,19 @@
       </c>
       <c r="I12" s="4">
         <f ca="1">5+J12</f>
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <f ca="1">SUM(K12:L12)</f>
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="L12" s="2">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -662,19 +661,19 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" ref="I13:I22" ca="1" si="0">5+J13</f>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" ref="J13:J22" ca="1" si="1">SUM(K13:L13)</f>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" ref="K13:L22" ca="1" si="2">RANDBETWEEN(1, 100)</f>
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -704,19 +703,19 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -743,19 +742,19 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -779,19 +778,19 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="M16" s="2"/>
     </row>
@@ -819,19 +818,19 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -858,19 +857,19 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -894,19 +893,19 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -930,19 +929,19 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -966,19 +965,19 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1002,19 +1001,19 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1060,103 +1059,103 @@
       <c r="G3" s="6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>

--- a/first.xlsx
+++ b/first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82D668-6280-42A1-A65B-1B24A2C7BC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061882A9-E4ED-49FF-9A6F-B9E4438E750B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Лимиты ПСО</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>БО</t>
+  </si>
+  <si>
+    <t>KMN</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>M:N</t>
+  </si>
+  <si>
+    <t>rand</t>
   </si>
 </sst>
 </file>
@@ -180,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -190,6 +202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -197,6 +213,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,122 +494,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="8.88671875" style="8"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="3"/>
-      <c r="J7" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="I10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -618,23 +662,31 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f ca="1">5+J12</f>
-        <v>85</v>
-      </c>
-      <c r="J12">
-        <f ca="1">SUM(K12:L12)</f>
-        <v>80</v>
+        <f ca="1">K12+M12+N12</f>
+        <v>264</v>
+      </c>
+      <c r="J12" s="8">
+        <f ca="1">M12+N12</f>
+        <v>132</v>
       </c>
       <c r="K12">
+        <f ca="1">SUM(M12:N12)</f>
+        <v>132</v>
+      </c>
+      <c r="L12" s="8">
+        <f ca="1">M12+N12</f>
+        <v>132</v>
+      </c>
+      <c r="M12">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>8</v>
-      </c>
-      <c r="L12" s="2">
+        <v>49</v>
+      </c>
+      <c r="N12" s="2">
         <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -659,24 +711,32 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" ref="I13:I22" ca="1" si="0">5+J13</f>
-        <v>53</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" ref="J13:J22" ca="1" si="1">SUM(K13:L13)</f>
-        <v>48</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" ref="K13:L22" ca="1" si="2">RANDBETWEEN(1, 100)</f>
-        <v>47</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="8">
+        <f t="shared" ref="I13:I22" ca="1" si="0">K13+M13+N13</f>
+        <v>264</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" ref="J13:J22" ca="1" si="1">M13+N13</f>
+        <v>132</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13:K22" ca="1" si="2">SUM(M13:N13)</f>
+        <v>132</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" ref="L13:L22" ca="1" si="3">M13+N13</f>
+        <v>132</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13:N22" ca="1" si="4">RANDBETWEEN(1, 100)</f>
+        <v>54</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -701,24 +761,32 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="J14" s="4">
+        <v>222</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="K14" s="2">
+        <v>111</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -740,61 +808,77 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="J15" s="4">
+        <v>348</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="K15" s="2">
+        <v>174</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" ca="1" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>79</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>11234458</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>11234458</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L16" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -816,24 +900,32 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="J17" s="4">
+        <v>262</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="K17" s="2">
+        <v>131</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -855,24 +947,32 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="J18" s="4">
+        <v>206</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K18" s="2">
+        <v>103</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -891,24 +991,32 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="J19" s="4">
+        <v>96</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="K19" s="2">
+        <v>48</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -927,24 +1035,32 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="J20" s="4">
+        <v>108</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="K20" s="2">
+        <v>54</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -963,24 +1079,32 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J21" s="4">
+        <v>314</v>
+      </c>
+      <c r="J21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="K21" s="2">
+        <v>157</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -999,27 +1123,35 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="J22" s="4">
+        <v>60</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="K22" s="2">
+        <v>30</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="K5:N6"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
@@ -1031,6 +1163,7 @@
     <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1059,103 +1192,103 @@
       <c r="G3" s="6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>

--- a/first.xlsx
+++ b/first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061882A9-E4ED-49FF-9A6F-B9E4438E750B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C35831-C67C-41F5-8130-72855F068742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5592" yWindow="1332" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Лимиты ПСО</t>
   </si>
@@ -105,9 +105,6 @@
     <t>виконання</t>
   </si>
   <si>
-    <t>План</t>
-  </si>
-  <si>
     <t>По всем</t>
   </si>
   <si>
@@ -117,16 +114,13 @@
     <t>БО</t>
   </si>
   <si>
-    <t>KMN</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>M:N</t>
-  </si>
-  <si>
-    <t>rand</t>
+    <t>План поточний</t>
+  </si>
+  <si>
+    <t>Лимиты поточные</t>
+  </si>
+  <si>
+    <t>лимиты предыдущие</t>
   </si>
 </sst>
 </file>
@@ -192,28 +186,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,149 +482,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O22"/>
+  <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="10" width="8.88671875" style="8"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7"/>
-      <c r="K7" t="s">
+      <c r="J7" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
       <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="O7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="I10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -661,32 +654,38 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="4">
-        <f ca="1">K12+M12+N12</f>
-        <v>264</v>
-      </c>
-      <c r="J12" s="8">
-        <f ca="1">M12+N12</f>
-        <v>132</v>
-      </c>
-      <c r="K12">
-        <f ca="1">SUM(M12:N12)</f>
-        <v>132</v>
-      </c>
-      <c r="L12" s="8">
-        <f ca="1">M12+N12</f>
-        <v>132</v>
+      <c r="I12" s="10">
+        <f>SUM(J12:K12)</f>
+        <v>200</v>
+      </c>
+      <c r="J12" s="10">
+        <v>100</v>
+      </c>
+      <c r="K12" s="10">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <f>SUM(M12:N12)</f>
+        <v>0</v>
       </c>
       <c r="M12">
-        <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>49</v>
-      </c>
-      <c r="N12" s="2">
-        <f ca="1">RANDBETWEEN(1, 100)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>P12+Q12</f>
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -711,32 +710,38 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
-        <f t="shared" ref="I13:I22" ca="1" si="0">K13+M13+N13</f>
-        <v>264</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" ref="J13:J22" ca="1" si="1">M13+N13</f>
-        <v>132</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" ref="K13:K22" ca="1" si="2">SUM(M13:N13)</f>
-        <v>132</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" ref="L13:L22" ca="1" si="3">M13+N13</f>
-        <v>132</v>
+      <c r="I13" s="10">
+        <f t="shared" ref="I13:I22" si="0">SUM(J13:K13)</f>
+        <v>202</v>
+      </c>
+      <c r="J13" s="10">
+        <v>101</v>
+      </c>
+      <c r="K13" s="10">
+        <v>101</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" ref="L13:L22" si="1">SUM(M13:N13)</f>
+        <v>2</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13:N22" ca="1" si="4">RANDBETWEEN(1, 100)</f>
-        <v>54</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" ref="O13:O22" si="2">P13+Q13</f>
+        <v>22</v>
+      </c>
+      <c r="P13" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -761,32 +766,38 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="J14" s="10">
+        <v>102</v>
+      </c>
+      <c r="K14" s="10">
+        <v>102</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P14" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -808,32 +819,38 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>348</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="J15" s="10">
+        <v>103</v>
+      </c>
+      <c r="K15" s="10">
+        <v>103</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M15" s="9">
+        <v>3</v>
+      </c>
+      <c r="N15" s="9">
+        <v>3</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="P15" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -852,33 +869,38 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="J16" s="10">
+        <v>104</v>
+      </c>
+      <c r="K16" s="10">
+        <v>104</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M16" s="9">
+        <v>4</v>
+      </c>
+      <c r="N16" s="9">
+        <v>4</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="P16" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -900,32 +922,38 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="J17" s="10">
+        <v>105</v>
+      </c>
+      <c r="K17" s="10">
+        <v>105</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M17" s="9">
+        <v>5</v>
+      </c>
+      <c r="N17" s="9">
+        <v>5</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P17" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -947,32 +975,38 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>206</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="J18" s="10">
+        <v>106</v>
+      </c>
+      <c r="K18" s="10">
+        <v>106</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M18" s="9">
+        <v>6</v>
+      </c>
+      <c r="N18" s="9">
+        <v>6</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="P18" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -991,32 +1025,38 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="J19" s="10">
+        <v>107</v>
+      </c>
+      <c r="K19" s="10">
+        <v>107</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M19" s="9">
+        <v>7</v>
+      </c>
+      <c r="N19" s="9">
+        <v>7</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="P19" s="9">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1035,32 +1075,38 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="8">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="J20" s="10">
         <v>108</v>
       </c>
-      <c r="J20" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K20" s="10">
+        <v>108</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M20" s="9">
+        <v>8</v>
+      </c>
+      <c r="N20" s="9">
+        <v>8</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="P20" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1073,38 +1119,47 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G21">
         <v>12336594</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>314</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>157</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>157</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>157</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="10">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="J21" s="10">
+        <v>109</v>
+      </c>
+      <c r="K21" s="10">
+        <v>109</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M21" s="9">
+        <v>9</v>
+      </c>
+      <c r="N21" s="9">
+        <v>9</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="P21" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1123,37 +1178,39 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="J22" s="10">
+        <v>110</v>
+      </c>
+      <c r="K22" s="10">
+        <v>110</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M22" s="9">
+        <v>10</v>
+      </c>
+      <c r="N22" s="9">
+        <v>10</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="P22" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="K5:N6"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="B10:G10"/>
+  <mergeCells count="13">
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
@@ -1161,6 +1218,12 @@
     <mergeCell ref="E4:F5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1178,120 +1241,120 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
